--- a/medicine/Enfance/Annie_Moser/Annie_Moser.xlsx
+++ b/medicine/Enfance/Annie_Moser/Annie_Moser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annie Moser est une romancière, poétesse et chanteuse française de cabarets..
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancienne élève du Conservatoire national supérieur d'art dramatique de Paris, Annie Moser est diplômée de lettres à l'université Paris-Sorbonne. Elle travaille comme conceptrice-rédactrice publicitaire avant de se consacrer à ses propres textes. Autrice de poèmes, elle est également autrice-interprète de chansons de cabarets[1],[2].
-Depuis 2012 et la publication de l'ouvrage Manon et la Caverne aux brigands, elle collabore avec l'historienne française Viviane Koenig, à l'écriture d'ouvrages historiques relevant de la littérature d'enfance et de jeunesse[1],[3].Elle a aussi publié 4 livres (trois recueils de poèmes et une biographie) aux éditions du Coudrier, sous le nom d'Annie Perec Moser.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancienne élève du Conservatoire national supérieur d'art dramatique de Paris, Annie Moser est diplômée de lettres à l'université Paris-Sorbonne. Elle travaille comme conceptrice-rédactrice publicitaire avant de se consacrer à ses propres textes. Autrice de poèmes, elle est également autrice-interprète de chansons de cabarets,.
+Depuis 2012 et la publication de l'ouvrage Manon et la Caverne aux brigands, elle collabore avec l'historienne française Viviane Koenig, à l'écriture d'ouvrages historiques relevant de la littérature d'enfance et de jeunesse,.Elle a aussi publié 4 livres (trois recueils de poèmes et une biographie) aux éditions du Coudrier, sous le nom d'Annie Perec Moser.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Manon et la Caverne aux brigands (avec Viviane Koenig), Oskar, 80 p., 2012  (ISBN 235000905X).
 Des démons dans le cartable (avec Viviane Koenig et Antoine Ronzon), Oskar, 89 p., 2013  (ISBN 102140117X).
